--- a/bookScrap/Códigos/dados.xlsx
+++ b/bookScrap/Códigos/dados.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Dados REMAMA" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,12 +436,32 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Titulo</t>
+          <t>Data</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Estoque</t>
+          <t>Publicacoes</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Seguidores</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Seguindo</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Data da publicacao</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Número de curtidas</t>
         </is>
       </c>
     </row>
@@ -451,11 +471,33 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>A Light in the Attic</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>22</v>
+          <t>16/05/2024</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>434</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.037</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>1.710</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>27 de março de 2021</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -464,11 +506,33 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Tipping the Velvet</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>20</v>
+          <t>16/05/2024</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>434</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.037</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>1.710</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8 de outubro de 2023</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -477,11 +541,33 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Soumission</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>20</v>
+          <t>16/05/2024</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>434</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.037</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>1.710</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8 de outubro de 2023</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -490,11 +576,33 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sharp Objects</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>20</v>
+          <t>16/05/2024</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>434</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.037</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>1.710</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>há 4 dias</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>•</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -503,11 +611,33 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sapiens: A Brief History of Humankind</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>20</v>
+          <t>16/05/2024</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>434</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.037</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>1.710</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>há 4 dias</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -516,11 +646,33 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>The Requiem Red</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>19</v>
+          <t>16/05/2024</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>434</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.037</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>1.710</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>há 5 dias</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -529,11 +681,33 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>The Dirty Little Secrets of Getting Your Dream Job</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>19</v>
+          <t>16/05/2024</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>434</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.037</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>1.710</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5 de maio</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -542,11 +716,33 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>The Coming Woman: A Novel Based on the Life of the Infamous Feminist, Victoria Woodhull</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>19</v>
+          <t>16/05/2024</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>434</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.037</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>1.710</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4 de maio</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -555,11 +751,33 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>The Boys in the Boat: Nine Americans and Their Epic Quest for Gold at the 1936 Berlin Olympics</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>19</v>
+          <t>16/05/2024</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>434</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.037</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>1.710</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2 de maio</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -568,11 +786,33 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>The Black Maria</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>19</v>
+          <t>16/05/2024</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>434</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.037</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>1.710</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>26 de abril</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -581,11 +821,33 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Starving Hearts (Triangular Trade Trilogy, #1)</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>19</v>
+          <t>16/05/2024</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>434</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.037</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>1.710</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>25 de abril</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -594,11 +856,33 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Shakespeare's Sonnets</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>19</v>
+          <t>16/05/2024</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>434</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.037</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>1.710</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>25 de abril</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>•</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -607,11 +891,33 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Set Me Free</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>19</v>
+          <t>16/05/2024</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>434</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.037</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>1.710</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>25 de abril</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -620,89 +926,33 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Scott Pilgrim's Precious Little Life (Scott Pilgrim #1)</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Rip it Up and Start Again</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Our Band Could Be Your Life: Scenes from the American Indie Underground, 1981-1991</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Olio</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Mesaerion: The Best Science Fiction Stories 1800-1849</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Libertarianism for Beginners</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>It's Only the Himalayas</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>19</v>
+          <t>16/05/2024</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>434</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.037</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>1.710</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>24 de abril</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
       </c>
     </row>
   </sheetData>
